--- a/resources/Content_Design_Logbook.xlsx
+++ b/resources/Content_Design_Logbook.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23901"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24026"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://educationgovuk-my.sharepoint.com/personal/heather_brown_education_gov_uk/Documents/Documents/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\R_projects\stats-production-guidance\resources\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="556" documentId="8_{D1847AFA-117A-45F4-8287-2B65C374A361}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{925DAC07-4429-4A81-BA5C-45AC1445ABFC}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7D14E1EF-C19D-4F38-8467-A9D81EE3C2D2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-98" yWindow="-98" windowWidth="22695" windowHeight="14595" xr2:uid="{B4DB9FB4-CD14-407E-B4BB-03FFE338F4A1}"/>
+    <workbookView xWindow="16155" yWindow="-16395" windowWidth="29040" windowHeight="15840" xr2:uid="{B4DB9FB4-CD14-407E-B4BB-03FFE338F4A1}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="65" uniqueCount="65">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="68" uniqueCount="68">
   <si>
     <t>Criteria</t>
   </si>
@@ -41,16 +41,10 @@
     <t>Comments</t>
   </si>
   <si>
-    <t>Organisation of information is in a logical sequence</t>
-  </si>
-  <si>
     <t>Caveats clearly explained</t>
   </si>
   <si>
     <t>Rating (select one)</t>
-  </si>
-  <si>
-    <t>Individual chart elements work together to reinforce the takeaway message</t>
   </si>
   <si>
     <r>
@@ -115,9 +109,6 @@
     <t>What is the key purpose(s) of the publication? And why is this important?  Is this captured in the comments column here?  Is it clear to readers from the title?</t>
   </si>
   <si>
-    <t>From the title is it sufficiently clear what the publication is about/will contain? (Statistics, coverage, geography, frequency, reference period, type of release (eg provisional, final))</t>
-  </si>
-  <si>
     <t>Content Design Log book</t>
   </si>
   <si>
@@ -136,9 +127,6 @@
     <t>Description of our users and uses of our statistics.  The value/purpose of the statistics articulated/clear.</t>
   </si>
   <si>
-    <t>Are trends identifed and explained and their implications clear. Are the main points from the data extracted.  Is the narrative logical and does the structure convey a story in a consistent, clear way.</t>
-  </si>
-  <si>
     <t xml:space="preserve">4. Visual Content </t>
   </si>
   <si>
@@ -166,9 +154,6 @@
     <t>Interpretation – why is it happening (do you need wider input/understanding on policy etc)? Why are we seeing these changes? Is the series we’re looking at influenced by another factor (make sure comments are impartial and are soundly based). How certain can we be about this data/information/conclusions? Data type - how and why selected?  Any adjustments made, revisions, and/or changes in quality to previous data [this can be high level as detail can be contained in the supporting information]?</t>
   </si>
   <si>
-    <t>Context – why is it interesting?  Does it contain key contextual and quality information?  The publication should include a report of quality against the European Systems quality dimensions - is this done?</t>
-  </si>
-  <si>
     <t>Numbers rounded appropriately.  The level of rounding you use (for example, one decimal place or two significant figures) should be effective, and chosen according to the intended use. It should also be consistent throughout your piece of writing.</t>
   </si>
   <si>
@@ -205,61 +190,67 @@
     <t xml:space="preserve">What are you going to say about the story - have you highlighted the key trends, big changes and explained them where appropriate, whilst using numbers in text sparingly?  </t>
   </si>
   <si>
-    <t xml:space="preserve">Consider all section contents, is the methodology (see any specific section) and definitions clear and easy to read, and are the key things a reader will look for upfront and easy to spot?  Do sections flow in logical sequence?  Are contacts clearly laid out etc.  Are data files named logically and consistently? Consider text/sections that are beyond the key messages/story.  </t>
-  </si>
-  <si>
     <t xml:space="preserve">Following an inverted pyramid writing style (crucial, helpful, nice to know).  </t>
   </si>
   <si>
+    <t xml:space="preserve">Chart text is readable, highlighting significant finding or conclusion within 10 seconds for readers. Information to ink ratio good - the GSS style guide gives good examples here of how presentation can be modified to improve clarity.  </t>
+  </si>
+  <si>
+    <t>Are they formatted correctly (including well labelled axes)? Do they have active/informative titles, explanatory footnotes could the footnotes be improved (should there be more/less?), and useful accompanying or embedded commentary pointing out patterns.</t>
+  </si>
+  <si>
+    <t>Clear terminology, no jargon, abbreviations expanded on first use?  Is the subject areas and story clear enough to understand the data and story told?</t>
+  </si>
+  <si>
+    <t>Table text is readable and clear.</t>
+  </si>
+  <si>
+    <t>7. Style</t>
+  </si>
+  <si>
+    <t>8. Pre publication</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9. Further improvement suggestions and comments: </t>
+  </si>
+  <si>
+    <t>6. Whole Data Files and Downloads</t>
+  </si>
+  <si>
+    <t>Individual chart elements work together well to reinforce the takeaway message</t>
+  </si>
+  <si>
+    <t>Is the type of chart appropriate for the data?</t>
+  </si>
+  <si>
+    <t>Active headings - is it clear from the title what message the chart is communicating?  Could you lift the whole chart out and the takeaway message(s) still be self-evident to the reader?</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Look at the publication holistically.  If you were preparing this from scratch, what would you like to see?  Think about this.  Does this mirror the content/ordering/sections/lay out/structure?  Are the breakdowns those of most interest, are there other breakdowns you'd wish to see? </t>
+  </si>
+  <si>
+    <t xml:space="preserve">From the title is it sufficiently clear what the publication is about/will contain? (Statistics, coverage, geography, frequency, reference period, type of release (eg provisional, final)).  Can the title be improved/made clearer? Try creating your title from scratch thinking about what users will be looking for - you could use analytics to inform.   Is it clear from the title or opening text that these are official (National) statistics? - Remember not everyone will know what National Statistics are and may think this relates to geography... </t>
+  </si>
+  <si>
+    <t>Is there consistency across charts eg colour of item eg females/male colour the same and labelling terms etc consistent?</t>
+  </si>
+  <si>
+    <t>Does the colour palette used work well for charts?</t>
+  </si>
+  <si>
+    <t xml:space="preserve">As a new reader, what data tables would you be keen to see and why?  Is it obvious where to look for this information?  Does the data you wish to see exist?  Are files easy for users to navigate and get information needed - without ending up with too many files?  </t>
+  </si>
+  <si>
+    <t>Could the name of each data table be improved (featured tables names, download file names?)  Could the length of the these be more concise? Is there repetition between table names that could be cut/reduced?</t>
+  </si>
+  <si>
+    <t>Headlines – aim for 3-4 headline bullets summarising the key points from your release. Check, can you understand these within 30 seconds?  Are these the right/best headlines?</t>
+  </si>
+  <si>
+    <t>Organisation of information and sections is in a logical sequence?  Are key messages easily found in the text?</t>
+  </si>
+  <si>
     <t xml:space="preserve">Are headings clear enough and do they aid navigation? Are the section in the best order to support readability/reader's neesd and/or use of statistics?  </t>
-  </si>
-  <si>
-    <r>
-      <t xml:space="preserve">Look at the publication holistically.  If you were preparing this from scratch, what would you like to see?  Think about this.  Does this mirror the content/ordering/sections/lay out/structure?  </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FFFF0000"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>Are the breakdowns those of most interest eg gender, are there other breakdowns you'd wish to see?  Feedback on the general feel of the release itself, how easy is it to digest?</t>
-    </r>
-  </si>
-  <si>
-    <t xml:space="preserve">Is the type of chart is appropriate for the data.  </t>
-  </si>
-  <si>
-    <r>
-      <t xml:space="preserve">If you were preparing from scratch - what information is most helpful to have visually represented and why?  Does this differ from what is currently in place?  Think about the different ways you could display this?  What is it you are trying to get across through use of the visual information?  Be clear about this - how would information be best displayed visually to do this?  </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FFFF0000"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>The team wish to know whether there is anything they could do to present the information better here?</t>
-    </r>
-  </si>
-  <si>
-    <t xml:space="preserve">Chart text is readable, highlighting significant finding or conclusion within 10 seconds for readers. Information to ink ratio good - the GSS style guide gives good examples here of how presentation can be modified to improve clarity.  </t>
-  </si>
-  <si>
-    <t>Are they formatted correctly (including well labelled axes)? Do they have active/informative titles, explanatory footnotes could the footnotes be improved (should there be more/less?), and useful accompanying or embedded commentary pointing out patterns.</t>
-  </si>
-  <si>
-    <t>Headlines – aim for 3-4 headline bullets summarising the key points from your release. Check, can you understand these within 30 seconds?  Are these the right/best headlines?</t>
-  </si>
-  <si>
-    <t>Clear terminology, no jargon, abbreviations expanded on first use?  Is the subject areas and story clear enough to understand the data and story told?</t>
-  </si>
-  <si>
-    <t>Table text is readable and clear.</t>
   </si>
   <si>
     <r>
@@ -268,41 +259,66 @@
     <r>
       <rPr>
         <sz val="11"/>
-        <color rgb="FFFF0000"/>
         <rFont val="Calibri"/>
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
-      <t>**Could the storytelling be improved? Do you understand which learning cohort is included in the statistics?  Is it easy to understand the context with the statistics?</t>
+      <t>Could the storytelling be improved?  Is it easy to understand the context with the statistics?</t>
     </r>
-  </si>
-  <si>
-    <t>7. Style</t>
-  </si>
-  <si>
-    <t>8. Pre publication</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9. Further improvement suggestions and comments: </t>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+  </si>
+  <si>
+    <t xml:space="preserve">Consider all section contents, is the methodology (see any specific section) and definitions clear and easy to read, and are the key things a reader will look for upfront and easy to spot?  Do sections flow in logical sequence?  Are contacts clearly laid out etc.  Are data files named logically and consistently? Consider text/sections that are beyond the key messages/story.  </t>
+  </si>
+  <si>
+    <r>
+      <t>If you were preparing from scratch - what information is most helpful to have visually represented and why?  Does this differ from what is currently in place?  Think about the different ways you could display this?  What is it you are trying to get across through use of the visual information?  Be clear about this - how would information be best displayed visually to do this?  Are</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> the charts/tables are clear and easy to understand?</t>
+    </r>
+  </si>
+  <si>
+    <t>Context – why is it interesting?  Does it contain key contextual and quality information?  The publication should be clear on quality around the statistics - ONS best practice refers to the European Systems quality dimensions (https://www.ons.gov.uk/methodology/methodologytopicsandstatisticalconcepts/qualityinofficialstatistics/qualitydefined) these relate to assessing fitness for purpose i) relevance ii) accuracy and reliability iii) timeliness and punctuality iv) accessibility and clarity iv) coherence and comparability.</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Are trends identifed and explained and their implications clear? Are the main points from the data extracted?  Is the narrative logical and does the structure convey a story in a consistent, clear way? </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Are there any other data/information that would be useful to include (even if not available currently)?</t>
+    </r>
   </si>
   <si>
     <t>Is it clear when looking at the columns/rows what these are?  Could there be improvements to help the reader?</t>
-  </si>
-  <si>
-    <t>6. Whole Data Files and Downloads</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Could the name of each data table be improved (featured tables names, download file names?)  Could the length of the these be more concise? </t>
-  </si>
-  <si>
-    <t>As a new reader, what data tables would you be keen to see and why?  Is it obvious where to look for this information?  Does the data you wish to see exist?  Are files easy for users to navigate and get information needed - without ending up with too many files?</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="6" x14ac:knownFonts="1">
+  <fonts count="5" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -340,13 +356,6 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <scheme val="minor"/>
-    </font>
   </fonts>
   <fills count="3">
     <fill>
@@ -655,7 +664,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="76">
+  <cellXfs count="80">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment vertical="top"/>
@@ -741,112 +750,7 @@
     <xf numFmtId="0" fontId="1" fillId="2" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="justify" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="15" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="15" xfId="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="17" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="18" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="19" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="17" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="18" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="19" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="17" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="18" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="20" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="18" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="21" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="22" xfId="0" applyBorder="1"/>
@@ -856,11 +760,128 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="22" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="17" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="18" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="19" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="justify" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="17" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="18" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="19" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="17" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="18" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="19" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="17" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="18" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="19" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="15" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="15" xfId="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="23" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="20" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="24" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -1177,10 +1198,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2EA11332-525F-4B9E-98BC-FF9CF2E0A37E}">
-  <dimension ref="B1:I80"/>
+  <dimension ref="B1:I83"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" topLeftCell="B48" workbookViewId="0">
-      <selection activeCell="B58" sqref="B58:E58"/>
+    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A19" workbookViewId="0">
+      <selection activeCell="H63" sqref="H63"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
@@ -1195,43 +1216,43 @@
   <sheetData>
     <row r="1" spans="2:9" ht="10.35" customHeight="1" x14ac:dyDescent="0.45"/>
     <row r="2" spans="2:9" ht="21" x14ac:dyDescent="0.65">
-      <c r="B2" s="49" t="s">
-        <v>17</v>
-      </c>
-      <c r="C2" s="49"/>
-      <c r="D2" s="49"/>
-      <c r="E2" s="49"/>
-      <c r="F2" s="49"/>
-      <c r="G2" s="49"/>
-      <c r="H2" s="49"/>
+      <c r="B2" s="74" t="s">
+        <v>14</v>
+      </c>
+      <c r="C2" s="74"/>
+      <c r="D2" s="74"/>
+      <c r="E2" s="74"/>
+      <c r="F2" s="74"/>
+      <c r="G2" s="74"/>
+      <c r="H2" s="74"/>
     </row>
     <row r="4" spans="2:9" ht="40.35" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="B4" s="50" t="s">
-        <v>6</v>
-      </c>
-      <c r="C4" s="50"/>
-      <c r="D4" s="50"/>
-      <c r="E4" s="50"/>
+      <c r="B4" s="75" t="s">
+        <v>4</v>
+      </c>
+      <c r="C4" s="75"/>
+      <c r="D4" s="75"/>
+      <c r="E4" s="75"/>
       <c r="G4" s="7"/>
       <c r="H4" s="7"/>
       <c r="I4" s="17"/>
     </row>
     <row r="5" spans="2:9" ht="14.65" thickBot="1" x14ac:dyDescent="0.5"/>
     <row r="6" spans="2:9" ht="28.5" x14ac:dyDescent="0.45">
-      <c r="B6" s="51" t="s">
+      <c r="B6" s="76" t="s">
         <v>0</v>
       </c>
-      <c r="C6" s="52"/>
-      <c r="D6" s="52"/>
-      <c r="E6" s="53"/>
+      <c r="C6" s="77"/>
+      <c r="D6" s="77"/>
+      <c r="E6" s="78"/>
       <c r="F6" s="8" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="G6" s="8" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="H6" s="9" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="I6" s="16" t="s">
         <v>1</v>
@@ -1239,7 +1260,7 @@
     </row>
     <row r="7" spans="2:9" ht="14.65" thickBot="1" x14ac:dyDescent="0.5">
       <c r="B7" s="10" t="s">
-        <v>18</v>
+        <v>15</v>
       </c>
       <c r="C7" s="11"/>
       <c r="D7" s="11"/>
@@ -1250,60 +1271,60 @@
       <c r="I7" s="12"/>
     </row>
     <row r="8" spans="2:9" ht="34.15" customHeight="1" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="B8" s="33" t="s">
-        <v>40</v>
-      </c>
-      <c r="C8" s="33"/>
-      <c r="D8" s="33"/>
-      <c r="E8" s="33"/>
+      <c r="B8" s="41" t="s">
+        <v>35</v>
+      </c>
+      <c r="C8" s="41"/>
+      <c r="D8" s="41"/>
+      <c r="E8" s="41"/>
       <c r="F8" s="22"/>
       <c r="G8" s="22"/>
       <c r="H8" s="22"/>
       <c r="I8" s="23"/>
     </row>
     <row r="9" spans="2:9" ht="14.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="B9" s="33" t="s">
-        <v>41</v>
-      </c>
-      <c r="C9" s="33"/>
-      <c r="D9" s="33"/>
-      <c r="E9" s="33"/>
+      <c r="B9" s="41" t="s">
+        <v>36</v>
+      </c>
+      <c r="C9" s="41"/>
+      <c r="D9" s="41"/>
+      <c r="E9" s="41"/>
       <c r="F9" s="22"/>
       <c r="G9" s="22"/>
       <c r="H9" s="22"/>
       <c r="I9" s="23"/>
     </row>
     <row r="10" spans="2:9" ht="25.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="B10" s="33" t="s">
-        <v>30</v>
-      </c>
-      <c r="C10" s="33"/>
-      <c r="D10" s="33"/>
-      <c r="E10" s="33"/>
+      <c r="B10" s="41" t="s">
+        <v>26</v>
+      </c>
+      <c r="C10" s="41"/>
+      <c r="D10" s="41"/>
+      <c r="E10" s="41"/>
       <c r="F10" s="22"/>
       <c r="G10" s="22"/>
       <c r="H10" s="22"/>
       <c r="I10" s="24"/>
     </row>
     <row r="11" spans="2:9" ht="33.950000000000003" customHeight="1" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="B11" s="35" t="s">
-        <v>15</v>
-      </c>
-      <c r="C11" s="35"/>
-      <c r="D11" s="35"/>
-      <c r="E11" s="35"/>
+      <c r="B11" s="40" t="s">
+        <v>13</v>
+      </c>
+      <c r="C11" s="40"/>
+      <c r="D11" s="40"/>
+      <c r="E11" s="40"/>
       <c r="F11" s="22"/>
       <c r="G11" s="22"/>
       <c r="H11" s="22"/>
       <c r="I11" s="24"/>
     </row>
-    <row r="12" spans="2:9" ht="33.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="B12" s="35" t="s">
-        <v>16</v>
-      </c>
-      <c r="C12" s="35"/>
-      <c r="D12" s="35"/>
-      <c r="E12" s="35"/>
+    <row r="12" spans="2:9" ht="84.4" customHeight="1" thickBot="1" x14ac:dyDescent="0.5">
+      <c r="B12" s="40" t="s">
+        <v>54</v>
+      </c>
+      <c r="C12" s="40"/>
+      <c r="D12" s="40"/>
+      <c r="E12" s="40"/>
       <c r="F12" s="22"/>
       <c r="G12" s="22"/>
       <c r="H12" s="22"/>
@@ -1311,7 +1332,7 @@
     </row>
     <row r="13" spans="2:9" ht="14.65" thickBot="1" x14ac:dyDescent="0.5">
       <c r="B13" s="14" t="s">
-        <v>19</v>
+        <v>16</v>
       </c>
       <c r="C13" s="15"/>
       <c r="D13" s="15"/>
@@ -1322,108 +1343,108 @@
       <c r="I13" s="19"/>
     </row>
     <row r="14" spans="2:9" s="13" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="B14" s="59" t="s">
-        <v>9</v>
-      </c>
-      <c r="C14" s="33"/>
-      <c r="D14" s="33"/>
-      <c r="E14" s="33"/>
+      <c r="B14" s="52" t="s">
+        <v>7</v>
+      </c>
+      <c r="C14" s="41"/>
+      <c r="D14" s="41"/>
+      <c r="E14" s="41"/>
       <c r="F14" s="20"/>
       <c r="G14" s="20"/>
       <c r="H14" s="20"/>
       <c r="I14" s="20"/>
     </row>
     <row r="15" spans="2:9" ht="29.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="B15" s="35" t="s">
-        <v>45</v>
-      </c>
-      <c r="C15" s="35"/>
-      <c r="D15" s="35"/>
-      <c r="E15" s="35"/>
+      <c r="B15" s="40" t="s">
+        <v>40</v>
+      </c>
+      <c r="C15" s="40"/>
+      <c r="D15" s="40"/>
+      <c r="E15" s="40"/>
       <c r="F15" s="20"/>
       <c r="G15" s="20"/>
       <c r="H15" s="20"/>
       <c r="I15" s="20"/>
     </row>
     <row r="16" spans="2:9" ht="19.149999999999999" customHeight="1" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="B16" s="35" t="s">
-        <v>31</v>
-      </c>
-      <c r="C16" s="35"/>
-      <c r="D16" s="35"/>
-      <c r="E16" s="35"/>
+      <c r="B16" s="40" t="s">
+        <v>27</v>
+      </c>
+      <c r="C16" s="40"/>
+      <c r="D16" s="40"/>
+      <c r="E16" s="40"/>
       <c r="F16" s="20"/>
       <c r="G16" s="20"/>
       <c r="H16" s="20"/>
       <c r="I16" s="20"/>
     </row>
     <row r="17" spans="2:9" ht="29.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="B17" s="35" t="s">
-        <v>10</v>
-      </c>
-      <c r="C17" s="35"/>
-      <c r="D17" s="35"/>
-      <c r="E17" s="35"/>
+      <c r="B17" s="40" t="s">
+        <v>8</v>
+      </c>
+      <c r="C17" s="40"/>
+      <c r="D17" s="40"/>
+      <c r="E17" s="40"/>
       <c r="F17" s="20"/>
       <c r="G17" s="20"/>
       <c r="H17" s="20"/>
       <c r="I17" s="20"/>
     </row>
     <row r="18" spans="2:9" ht="70.150000000000006" customHeight="1" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="B18" s="57" t="s">
-        <v>32</v>
-      </c>
-      <c r="C18" s="58"/>
-      <c r="D18" s="58"/>
-      <c r="E18" s="58"/>
+      <c r="B18" s="59" t="s">
+        <v>28</v>
+      </c>
+      <c r="C18" s="79"/>
+      <c r="D18" s="79"/>
+      <c r="E18" s="79"/>
       <c r="F18" s="20"/>
       <c r="G18" s="20"/>
       <c r="H18" s="20"/>
       <c r="I18" s="20"/>
     </row>
-    <row r="19" spans="2:9" ht="29.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="B19" s="38" t="s">
-        <v>33</v>
-      </c>
-      <c r="C19" s="39"/>
-      <c r="D19" s="39"/>
-      <c r="E19" s="39"/>
+    <row r="19" spans="2:9" ht="89.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.5">
+      <c r="B19" s="46" t="s">
+        <v>65</v>
+      </c>
+      <c r="C19" s="47"/>
+      <c r="D19" s="47"/>
+      <c r="E19" s="47"/>
       <c r="F19" s="20"/>
       <c r="G19" s="21"/>
       <c r="H19" s="21"/>
       <c r="I19" s="21"/>
     </row>
     <row r="20" spans="2:9" ht="29.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="B20" s="57" t="s">
-        <v>54</v>
-      </c>
-      <c r="C20" s="39"/>
-      <c r="D20" s="39"/>
-      <c r="E20" s="39"/>
+      <c r="B20" s="59" t="s">
+        <v>59</v>
+      </c>
+      <c r="C20" s="47"/>
+      <c r="D20" s="47"/>
+      <c r="E20" s="47"/>
       <c r="F20" s="20"/>
       <c r="G20" s="21"/>
       <c r="H20" s="21"/>
       <c r="I20" s="21"/>
     </row>
     <row r="21" spans="2:9" ht="29.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="B21" s="57" t="s">
-        <v>20</v>
-      </c>
-      <c r="C21" s="39"/>
-      <c r="D21" s="39"/>
-      <c r="E21" s="39"/>
+      <c r="B21" s="59" t="s">
+        <v>17</v>
+      </c>
+      <c r="C21" s="47"/>
+      <c r="D21" s="47"/>
+      <c r="E21" s="47"/>
       <c r="F21" s="20"/>
       <c r="G21" s="21"/>
       <c r="H21" s="21"/>
       <c r="I21" s="21"/>
     </row>
-    <row r="22" spans="2:9" ht="59.65" customHeight="1" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="B22" s="57" t="s">
-        <v>49</v>
-      </c>
-      <c r="C22" s="39"/>
-      <c r="D22" s="39"/>
-      <c r="E22" s="39"/>
+    <row r="22" spans="2:9" ht="58.15" customHeight="1" thickBot="1" x14ac:dyDescent="0.5">
+      <c r="B22" s="53" t="s">
+        <v>53</v>
+      </c>
+      <c r="C22" s="54"/>
+      <c r="D22" s="54"/>
+      <c r="E22" s="55"/>
       <c r="F22" s="20"/>
       <c r="G22" s="21"/>
       <c r="H22" s="21"/>
@@ -1431,7 +1452,7 @@
     </row>
     <row r="23" spans="2:9" ht="14.65" thickBot="1" x14ac:dyDescent="0.5">
       <c r="B23" s="14" t="s">
-        <v>21</v>
+        <v>18</v>
       </c>
       <c r="C23" s="15"/>
       <c r="D23" s="15"/>
@@ -1442,526 +1463,532 @@
       <c r="I23" s="19"/>
     </row>
     <row r="24" spans="2:9" ht="14.65" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="B24" s="33" t="s">
-        <v>12</v>
-      </c>
-      <c r="C24" s="33"/>
-      <c r="D24" s="33"/>
-      <c r="E24" s="33"/>
+      <c r="B24" s="41" t="s">
+        <v>10</v>
+      </c>
+      <c r="C24" s="41"/>
+      <c r="D24" s="41"/>
+      <c r="E24" s="41"/>
       <c r="F24" s="20"/>
       <c r="G24" s="22"/>
       <c r="H24" s="22"/>
       <c r="I24" s="23"/>
     </row>
     <row r="25" spans="2:9" ht="46.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="B25" s="33" t="s">
-        <v>14</v>
-      </c>
-      <c r="C25" s="33"/>
-      <c r="D25" s="33"/>
-      <c r="E25" s="33"/>
+      <c r="B25" s="41" t="s">
+        <v>12</v>
+      </c>
+      <c r="C25" s="41"/>
+      <c r="D25" s="41"/>
+      <c r="E25" s="41"/>
       <c r="F25" s="20"/>
       <c r="G25" s="22"/>
       <c r="H25" s="22"/>
       <c r="I25" s="23"/>
     </row>
-    <row r="26" spans="2:9" ht="30.4" customHeight="1" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="B26" s="54" t="s">
-        <v>48</v>
-      </c>
-      <c r="C26" s="55"/>
-      <c r="D26" s="55"/>
-      <c r="E26" s="56"/>
+    <row r="26" spans="2:9" ht="47.65" customHeight="1" thickBot="1" x14ac:dyDescent="0.5">
+      <c r="B26" s="49" t="s">
+        <v>61</v>
+      </c>
+      <c r="C26" s="50"/>
+      <c r="D26" s="50"/>
+      <c r="E26" s="51"/>
       <c r="F26" s="20"/>
       <c r="G26" s="22"/>
       <c r="H26" s="22"/>
       <c r="I26" s="23"/>
     </row>
     <row r="27" spans="2:9" ht="32.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="B27" s="54" t="s">
-        <v>55</v>
-      </c>
-      <c r="C27" s="55"/>
-      <c r="D27" s="55"/>
-      <c r="E27" s="56"/>
+      <c r="B27" s="49" t="s">
+        <v>44</v>
+      </c>
+      <c r="C27" s="50"/>
+      <c r="D27" s="50"/>
+      <c r="E27" s="51"/>
       <c r="F27" s="20"/>
       <c r="G27" s="22"/>
       <c r="H27" s="22"/>
       <c r="I27" s="28"/>
     </row>
     <row r="28" spans="2:9" ht="14.65" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="B28" s="60" t="s">
-        <v>2</v>
-      </c>
-      <c r="C28" s="61"/>
-      <c r="D28" s="61"/>
-      <c r="E28" s="62"/>
+      <c r="B28" s="43" t="s">
+        <v>60</v>
+      </c>
+      <c r="C28" s="44"/>
+      <c r="D28" s="44"/>
+      <c r="E28" s="45"/>
       <c r="F28" s="20"/>
       <c r="G28" s="22"/>
       <c r="H28" s="22"/>
       <c r="I28" s="28"/>
     </row>
     <row r="29" spans="2:9" ht="14.65" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="B29" s="36" t="s">
-        <v>47</v>
-      </c>
-      <c r="C29" s="36"/>
-      <c r="D29" s="36"/>
-      <c r="E29" s="36"/>
+      <c r="B29" s="42" t="s">
+        <v>41</v>
+      </c>
+      <c r="C29" s="42"/>
+      <c r="D29" s="42"/>
+      <c r="E29" s="42"/>
       <c r="F29" s="20"/>
       <c r="G29" s="22"/>
       <c r="H29" s="22"/>
       <c r="I29" s="28"/>
     </row>
-    <row r="30" spans="2:9" ht="55.9" customHeight="1" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="B30" s="35" t="s">
-        <v>57</v>
-      </c>
-      <c r="C30" s="35"/>
-      <c r="D30" s="35"/>
-      <c r="E30" s="35"/>
+    <row r="30" spans="2:9" ht="51" customHeight="1" thickBot="1" x14ac:dyDescent="0.5">
+      <c r="B30" s="40" t="s">
+        <v>62</v>
+      </c>
+      <c r="C30" s="40"/>
+      <c r="D30" s="40"/>
+      <c r="E30" s="40"/>
       <c r="F30" s="20"/>
       <c r="G30" s="22"/>
       <c r="H30" s="22"/>
       <c r="I30" s="28"/>
     </row>
     <row r="31" spans="2:9" ht="14.65" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="B31" s="35" t="s">
-        <v>13</v>
-      </c>
-      <c r="C31" s="35"/>
-      <c r="D31" s="35"/>
-      <c r="E31" s="35"/>
+      <c r="B31" s="40" t="s">
+        <v>11</v>
+      </c>
+      <c r="C31" s="40"/>
+      <c r="D31" s="40"/>
+      <c r="E31" s="40"/>
       <c r="F31" s="20"/>
       <c r="G31" s="22"/>
       <c r="H31" s="22"/>
       <c r="I31" s="28"/>
     </row>
-    <row r="32" spans="2:9" ht="31.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="B32" s="35" t="s">
-        <v>23</v>
-      </c>
-      <c r="C32" s="35"/>
-      <c r="D32" s="35"/>
-      <c r="E32" s="35"/>
+    <row r="32" spans="2:9" ht="81.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.5">
+      <c r="B32" s="40" t="s">
+        <v>66</v>
+      </c>
+      <c r="C32" s="40"/>
+      <c r="D32" s="40"/>
+      <c r="E32" s="40"/>
       <c r="F32" s="20"/>
       <c r="G32" s="22"/>
       <c r="H32" s="22"/>
       <c r="I32" s="28"/>
     </row>
     <row r="33" spans="2:9" ht="44.65" customHeight="1" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="B33" s="38" t="s">
-        <v>11</v>
-      </c>
-      <c r="C33" s="39"/>
-      <c r="D33" s="39"/>
-      <c r="E33" s="39"/>
+      <c r="B33" s="46" t="s">
+        <v>9</v>
+      </c>
+      <c r="C33" s="47"/>
+      <c r="D33" s="47"/>
+      <c r="E33" s="47"/>
       <c r="F33" s="20"/>
       <c r="G33" s="29"/>
       <c r="H33" s="29"/>
       <c r="I33" s="29"/>
     </row>
     <row r="34" spans="2:9" ht="14.65" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="B34" s="35" t="s">
-        <v>22</v>
-      </c>
-      <c r="C34" s="35"/>
-      <c r="D34" s="35"/>
-      <c r="E34" s="35"/>
+      <c r="B34" s="40" t="s">
+        <v>19</v>
+      </c>
+      <c r="C34" s="40"/>
+      <c r="D34" s="40"/>
+      <c r="E34" s="40"/>
       <c r="F34" s="20"/>
       <c r="G34" s="22"/>
       <c r="H34" s="22"/>
       <c r="I34" s="28"/>
     </row>
     <row r="35" spans="2:9" ht="17.649999999999999" customHeight="1" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="B35" s="36" t="s">
-        <v>3</v>
-      </c>
-      <c r="C35" s="36"/>
-      <c r="D35" s="36"/>
-      <c r="E35" s="36"/>
+      <c r="B35" s="42" t="s">
+        <v>2</v>
+      </c>
+      <c r="C35" s="42"/>
+      <c r="D35" s="42"/>
+      <c r="E35" s="42"/>
       <c r="F35" s="20"/>
       <c r="G35" s="22"/>
       <c r="H35" s="22"/>
       <c r="I35" s="28"/>
     </row>
     <row r="36" spans="2:9" ht="42.4" customHeight="1" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="B36" s="37" t="s">
-        <v>34</v>
-      </c>
-      <c r="C36" s="37"/>
-      <c r="D36" s="37"/>
-      <c r="E36" s="37"/>
+      <c r="B36" s="48" t="s">
+        <v>29</v>
+      </c>
+      <c r="C36" s="48"/>
+      <c r="D36" s="48"/>
+      <c r="E36" s="48"/>
       <c r="F36" s="20"/>
       <c r="G36" s="22"/>
       <c r="H36" s="22"/>
       <c r="I36" s="28"/>
     </row>
     <row r="37" spans="2:9" ht="17.649999999999999" customHeight="1" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="B37" s="36" t="s">
-        <v>39</v>
-      </c>
-      <c r="C37" s="36"/>
-      <c r="D37" s="36"/>
-      <c r="E37" s="36"/>
+      <c r="B37" s="42" t="s">
+        <v>34</v>
+      </c>
+      <c r="C37" s="42"/>
+      <c r="D37" s="42"/>
+      <c r="E37" s="42"/>
       <c r="F37" s="20"/>
       <c r="G37" s="22"/>
       <c r="H37" s="22"/>
       <c r="I37" s="28"/>
     </row>
     <row r="38" spans="2:9" ht="31.15" customHeight="1" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="B38" s="35" t="s">
-        <v>42</v>
-      </c>
-      <c r="C38" s="35"/>
-      <c r="D38" s="35"/>
-      <c r="E38" s="35"/>
+      <c r="B38" s="40" t="s">
+        <v>37</v>
+      </c>
+      <c r="C38" s="40"/>
+      <c r="D38" s="40"/>
+      <c r="E38" s="40"/>
       <c r="F38" s="20"/>
       <c r="G38" s="22"/>
       <c r="H38" s="22"/>
       <c r="I38" s="28"/>
     </row>
     <row r="39" spans="2:9" ht="78.400000000000006" customHeight="1" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="B39" s="37" t="s">
-        <v>46</v>
-      </c>
-      <c r="C39" s="37"/>
-      <c r="D39" s="37"/>
-      <c r="E39" s="37"/>
+      <c r="B39" s="48" t="s">
+        <v>63</v>
+      </c>
+      <c r="C39" s="48"/>
+      <c r="D39" s="48"/>
+      <c r="E39" s="48"/>
       <c r="F39" s="20"/>
       <c r="G39" s="22"/>
       <c r="H39" s="22"/>
       <c r="I39" s="28"/>
     </row>
     <row r="40" spans="2:9" ht="39.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="B40" s="46" t="s">
-        <v>24</v>
-      </c>
-      <c r="C40" s="47"/>
-      <c r="D40" s="47"/>
-      <c r="E40" s="47"/>
-      <c r="F40" s="47"/>
-      <c r="G40" s="47"/>
-      <c r="H40" s="47"/>
-      <c r="I40" s="48"/>
+      <c r="B40" s="66" t="s">
+        <v>20</v>
+      </c>
+      <c r="C40" s="67"/>
+      <c r="D40" s="67"/>
+      <c r="E40" s="67"/>
+      <c r="F40" s="67"/>
+      <c r="G40" s="67"/>
+      <c r="H40" s="67"/>
+      <c r="I40" s="68"/>
     </row>
     <row r="41" spans="2:9" ht="78.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="B41" s="33" t="s">
-        <v>51</v>
-      </c>
-      <c r="C41" s="33"/>
-      <c r="D41" s="33"/>
-      <c r="E41" s="33"/>
+      <c r="B41" s="41" t="s">
+        <v>64</v>
+      </c>
+      <c r="C41" s="41"/>
+      <c r="D41" s="41"/>
+      <c r="E41" s="41"/>
       <c r="F41" s="22"/>
       <c r="G41" s="22"/>
       <c r="H41" s="22"/>
       <c r="I41" s="27"/>
     </row>
-    <row r="42" spans="2:9" ht="37.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="B42" s="33" t="s">
+    <row r="42" spans="2:9" ht="35.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.5">
+      <c r="B42" s="49" t="s">
         <v>52</v>
       </c>
-      <c r="C42" s="33"/>
-      <c r="D42" s="33"/>
-      <c r="E42" s="33"/>
+      <c r="C42" s="50"/>
+      <c r="D42" s="50"/>
+      <c r="E42" s="51"/>
       <c r="F42" s="22"/>
       <c r="G42" s="22"/>
       <c r="H42" s="22"/>
       <c r="I42" s="27"/>
     </row>
-    <row r="43" spans="2:9" ht="14.65" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="B43" s="35" t="s">
-        <v>50</v>
-      </c>
-      <c r="C43" s="35"/>
-      <c r="D43" s="35"/>
-      <c r="E43" s="35"/>
+    <row r="43" spans="2:9" ht="37.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.5">
+      <c r="B43" s="41" t="s">
+        <v>42</v>
+      </c>
+      <c r="C43" s="41"/>
+      <c r="D43" s="41"/>
+      <c r="E43" s="41"/>
       <c r="F43" s="22"/>
       <c r="G43" s="22"/>
       <c r="H43" s="22"/>
       <c r="I43" s="27"/>
     </row>
     <row r="44" spans="2:9" ht="14.65" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="B44" s="35" t="s">
-        <v>5</v>
-      </c>
-      <c r="C44" s="35"/>
-      <c r="D44" s="35"/>
-      <c r="E44" s="35"/>
+      <c r="B44" s="40" t="s">
+        <v>51</v>
+      </c>
+      <c r="C44" s="40"/>
+      <c r="D44" s="40"/>
+      <c r="E44" s="40"/>
       <c r="F44" s="22"/>
       <c r="G44" s="22"/>
       <c r="H44" s="22"/>
       <c r="I44" s="27"/>
     </row>
     <row r="45" spans="2:9" ht="14.65" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="B45" s="36" t="s">
-        <v>56</v>
-      </c>
-      <c r="C45" s="36"/>
-      <c r="D45" s="36"/>
-      <c r="E45" s="36"/>
+      <c r="B45" s="40" t="s">
+        <v>50</v>
+      </c>
+      <c r="C45" s="40"/>
+      <c r="D45" s="40"/>
+      <c r="E45" s="40"/>
       <c r="F45" s="22"/>
       <c r="G45" s="22"/>
       <c r="H45" s="22"/>
       <c r="I45" s="27"/>
     </row>
     <row r="46" spans="2:9" ht="14.65" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="B46" s="35" t="s">
-        <v>35</v>
-      </c>
-      <c r="C46" s="35"/>
-      <c r="D46" s="35"/>
-      <c r="E46" s="35"/>
+      <c r="B46" s="56" t="s">
+        <v>55</v>
+      </c>
+      <c r="C46" s="57"/>
+      <c r="D46" s="57"/>
+      <c r="E46" s="58"/>
       <c r="F46" s="22"/>
       <c r="G46" s="22"/>
       <c r="H46" s="22"/>
       <c r="I46" s="27"/>
     </row>
-    <row r="47" spans="2:9" ht="35.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="B47" s="35" t="s">
-        <v>43</v>
-      </c>
-      <c r="C47" s="35"/>
-      <c r="D47" s="35"/>
-      <c r="E47" s="35"/>
+    <row r="47" spans="2:9" ht="14.65" thickBot="1" x14ac:dyDescent="0.5">
+      <c r="B47" s="42" t="s">
+        <v>45</v>
+      </c>
+      <c r="C47" s="42"/>
+      <c r="D47" s="42"/>
+      <c r="E47" s="42"/>
       <c r="F47" s="22"/>
       <c r="G47" s="22"/>
       <c r="H47" s="22"/>
       <c r="I47" s="27"/>
     </row>
-    <row r="48" spans="2:9" ht="51.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="B48" s="35" t="s">
-        <v>53</v>
-      </c>
-      <c r="C48" s="35"/>
-      <c r="D48" s="35"/>
-      <c r="E48" s="35"/>
+    <row r="48" spans="2:9" ht="14.65" thickBot="1" x14ac:dyDescent="0.5">
+      <c r="B48" s="40" t="s">
+        <v>30</v>
+      </c>
+      <c r="C48" s="40"/>
+      <c r="D48" s="40"/>
+      <c r="E48" s="40"/>
       <c r="F48" s="22"/>
       <c r="G48" s="22"/>
       <c r="H48" s="22"/>
       <c r="I48" s="27"/>
     </row>
-    <row r="49" spans="2:9" ht="14.65" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="B49" s="14" t="s">
-        <v>36</v>
-      </c>
-      <c r="C49" s="15"/>
-      <c r="D49" s="15"/>
-      <c r="E49" s="15"/>
-      <c r="F49" s="18"/>
-      <c r="G49" s="15"/>
-      <c r="H49" s="15"/>
-      <c r="I49" s="19"/>
-    </row>
-    <row r="50" spans="2:9" ht="28.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="B50" s="35" t="s">
-        <v>25</v>
-      </c>
-      <c r="C50" s="35"/>
-      <c r="D50" s="35"/>
-      <c r="E50" s="35"/>
+    <row r="49" spans="2:9" ht="35.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.5">
+      <c r="B49" s="40" t="s">
+        <v>38</v>
+      </c>
+      <c r="C49" s="40"/>
+      <c r="D49" s="40"/>
+      <c r="E49" s="40"/>
+      <c r="F49" s="22"/>
+      <c r="G49" s="22"/>
+      <c r="H49" s="22"/>
+      <c r="I49" s="27"/>
+    </row>
+    <row r="50" spans="2:9" ht="24.4" customHeight="1" thickBot="1" x14ac:dyDescent="0.5">
+      <c r="B50" s="56" t="s">
+        <v>56</v>
+      </c>
+      <c r="C50" s="57"/>
+      <c r="D50" s="57"/>
+      <c r="E50" s="58"/>
       <c r="F50" s="22"/>
       <c r="G50" s="22"/>
       <c r="H50" s="22"/>
       <c r="I50" s="27"/>
     </row>
-    <row r="51" spans="2:9" ht="33" customHeight="1" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="B51" s="35" t="s">
-        <v>26</v>
-      </c>
-      <c r="C51" s="35"/>
-      <c r="D51" s="35"/>
-      <c r="E51" s="35"/>
+    <row r="51" spans="2:9" ht="51.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.5">
+      <c r="B51" s="40" t="s">
+        <v>43</v>
+      </c>
+      <c r="C51" s="40"/>
+      <c r="D51" s="40"/>
+      <c r="E51" s="40"/>
       <c r="F51" s="22"/>
       <c r="G51" s="22"/>
       <c r="H51" s="22"/>
       <c r="I51" s="27"/>
     </row>
-    <row r="52" spans="2:9" ht="18.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="B52" s="35" t="s">
-        <v>27</v>
-      </c>
-      <c r="C52" s="35"/>
-      <c r="D52" s="35"/>
-      <c r="E52" s="35"/>
-      <c r="F52" s="22"/>
-      <c r="G52" s="22"/>
-      <c r="H52" s="22"/>
-      <c r="I52" s="27"/>
-    </row>
-    <row r="53" spans="2:9" ht="18.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="B53" s="35" t="s">
-        <v>28</v>
-      </c>
-      <c r="C53" s="35"/>
-      <c r="D53" s="35"/>
-      <c r="E53" s="35"/>
+    <row r="52" spans="2:9" ht="14.65" thickBot="1" x14ac:dyDescent="0.5">
+      <c r="B52" s="14" t="s">
+        <v>31</v>
+      </c>
+      <c r="C52" s="15"/>
+      <c r="D52" s="15"/>
+      <c r="E52" s="15"/>
+      <c r="F52" s="18"/>
+      <c r="G52" s="15"/>
+      <c r="H52" s="15"/>
+      <c r="I52" s="19"/>
+    </row>
+    <row r="53" spans="2:9" ht="28.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.5">
+      <c r="B53" s="40" t="s">
+        <v>21</v>
+      </c>
+      <c r="C53" s="40"/>
+      <c r="D53" s="40"/>
+      <c r="E53" s="40"/>
       <c r="F53" s="22"/>
       <c r="G53" s="22"/>
       <c r="H53" s="22"/>
       <c r="I53" s="27"/>
     </row>
-    <row r="54" spans="2:9" ht="21.4" customHeight="1" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="B54" s="35" t="s">
-        <v>29</v>
-      </c>
-      <c r="C54" s="35"/>
-      <c r="D54" s="35"/>
-      <c r="E54" s="35"/>
+    <row r="54" spans="2:9" ht="33" customHeight="1" thickBot="1" x14ac:dyDescent="0.5">
+      <c r="B54" s="40" t="s">
+        <v>22</v>
+      </c>
+      <c r="C54" s="40"/>
+      <c r="D54" s="40"/>
+      <c r="E54" s="40"/>
       <c r="F54" s="22"/>
       <c r="G54" s="22"/>
       <c r="H54" s="22"/>
       <c r="I54" s="27"/>
     </row>
-    <row r="55" spans="2:9" x14ac:dyDescent="0.45">
-      <c r="B55" s="30" t="s">
-        <v>62</v>
-      </c>
-      <c r="C55" s="31"/>
-      <c r="D55" s="31"/>
-      <c r="E55" s="31"/>
-      <c r="F55" s="31"/>
-      <c r="G55" s="31"/>
-      <c r="H55" s="31"/>
-      <c r="I55" s="32"/>
-    </row>
-    <row r="56" spans="2:9" ht="41.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="B56" s="64" t="s">
-        <v>64</v>
-      </c>
-      <c r="C56" s="65"/>
-      <c r="D56" s="65"/>
-      <c r="E56" s="65"/>
-      <c r="F56" s="70"/>
-      <c r="G56" s="70"/>
-      <c r="H56" s="63"/>
-      <c r="I56" s="72"/>
-    </row>
-    <row r="57" spans="2:9" ht="29.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="B57" s="66" t="s">
-        <v>63</v>
-      </c>
-      <c r="C57" s="67"/>
-      <c r="D57" s="67"/>
-      <c r="E57" s="67"/>
-      <c r="F57" s="71"/>
-      <c r="G57" s="71"/>
-      <c r="H57" s="69"/>
-      <c r="I57" s="73"/>
-    </row>
-    <row r="58" spans="2:9" ht="21.4" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="B58" s="74" t="s">
-        <v>61</v>
-      </c>
-      <c r="C58" s="68"/>
-      <c r="D58" s="68"/>
-      <c r="E58" s="75"/>
-      <c r="F58" s="70"/>
-      <c r="G58" s="70"/>
-      <c r="H58" s="63"/>
-      <c r="I58" s="72"/>
-    </row>
-    <row r="59" spans="2:9" ht="14.65" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="B59" s="40" t="s">
+    <row r="55" spans="2:9" ht="18.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.5">
+      <c r="B55" s="40" t="s">
+        <v>23</v>
+      </c>
+      <c r="C55" s="40"/>
+      <c r="D55" s="40"/>
+      <c r="E55" s="40"/>
+      <c r="F55" s="22"/>
+      <c r="G55" s="22"/>
+      <c r="H55" s="22"/>
+      <c r="I55" s="27"/>
+    </row>
+    <row r="56" spans="2:9" ht="18.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.5">
+      <c r="B56" s="40" t="s">
+        <v>24</v>
+      </c>
+      <c r="C56" s="40"/>
+      <c r="D56" s="40"/>
+      <c r="E56" s="40"/>
+      <c r="F56" s="22"/>
+      <c r="G56" s="22"/>
+      <c r="H56" s="22"/>
+      <c r="I56" s="27"/>
+    </row>
+    <row r="57" spans="2:9" ht="21.4" customHeight="1" thickBot="1" x14ac:dyDescent="0.5">
+      <c r="B57" s="40" t="s">
+        <v>25</v>
+      </c>
+      <c r="C57" s="40"/>
+      <c r="D57" s="40"/>
+      <c r="E57" s="40"/>
+      <c r="F57" s="22"/>
+      <c r="G57" s="22"/>
+      <c r="H57" s="22"/>
+      <c r="I57" s="27"/>
+    </row>
+    <row r="58" spans="2:9" x14ac:dyDescent="0.45">
+      <c r="B58" s="30" t="s">
+        <v>49</v>
+      </c>
+      <c r="C58" s="31"/>
+      <c r="D58" s="31"/>
+      <c r="E58" s="31"/>
+      <c r="F58" s="31"/>
+      <c r="G58" s="31"/>
+      <c r="H58" s="31"/>
+      <c r="I58" s="32"/>
+    </row>
+    <row r="59" spans="2:9" ht="48.4" customHeight="1" thickBot="1" x14ac:dyDescent="0.5">
+      <c r="B59" s="69" t="s">
+        <v>57</v>
+      </c>
+      <c r="C59" s="70"/>
+      <c r="D59" s="70"/>
+      <c r="E59" s="70"/>
+      <c r="F59" s="35"/>
+      <c r="G59" s="35"/>
+      <c r="H59" s="33"/>
+      <c r="I59" s="37"/>
+    </row>
+    <row r="60" spans="2:9" ht="29.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.5">
+      <c r="B60" s="56" t="s">
         <v>58</v>
       </c>
-      <c r="C59" s="41"/>
-      <c r="D59" s="41"/>
-      <c r="E59" s="41"/>
-      <c r="F59" s="41"/>
-      <c r="G59" s="41"/>
-      <c r="H59" s="41"/>
-      <c r="I59" s="43"/>
-    </row>
-    <row r="60" spans="2:9" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="B60" s="44" t="s">
-        <v>38</v>
-      </c>
-      <c r="C60" s="45"/>
-      <c r="D60" s="45"/>
-      <c r="E60" s="45"/>
-      <c r="F60" s="22"/>
-      <c r="G60" s="22"/>
-      <c r="H60" s="22"/>
-      <c r="I60" s="27"/>
-    </row>
-    <row r="61" spans="2:9" ht="14.65" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="B61" s="40" t="s">
-        <v>59</v>
-      </c>
-      <c r="C61" s="41"/>
-      <c r="D61" s="41"/>
-      <c r="E61" s="41"/>
-      <c r="F61" s="41"/>
-      <c r="G61" s="41"/>
-      <c r="H61" s="41"/>
-      <c r="I61" s="43"/>
-    </row>
-    <row r="62" spans="2:9" s="13" customFormat="1" ht="31.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="B62" s="34" t="s">
-        <v>44</v>
-      </c>
-      <c r="C62" s="35"/>
-      <c r="D62" s="35"/>
-      <c r="E62" s="35"/>
-      <c r="F62" s="25"/>
-      <c r="G62" s="25"/>
-      <c r="H62" s="25"/>
-      <c r="I62" s="26"/>
-    </row>
-    <row r="63" spans="2:9" s="13" customFormat="1" ht="17.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="B63" s="34" t="s">
-        <v>37</v>
-      </c>
-      <c r="C63" s="35"/>
-      <c r="D63" s="35"/>
-      <c r="E63" s="35"/>
-      <c r="F63" s="25"/>
-      <c r="G63" s="25"/>
-      <c r="H63" s="25"/>
-      <c r="I63" s="26"/>
-    </row>
-    <row r="64" spans="2:9" x14ac:dyDescent="0.45">
-      <c r="B64" s="40" t="s">
-        <v>60</v>
-      </c>
-      <c r="C64" s="41"/>
-      <c r="D64" s="41"/>
-      <c r="E64" s="41"/>
-      <c r="F64" s="41"/>
-      <c r="G64" s="41"/>
-      <c r="H64" s="41"/>
-      <c r="I64" s="42"/>
-    </row>
-    <row r="65" spans="2:9" x14ac:dyDescent="0.45">
-      <c r="B65" s="2"/>
-      <c r="C65" s="1"/>
-      <c r="D65" s="1"/>
-      <c r="E65" s="1"/>
-      <c r="F65" s="1"/>
-      <c r="G65" s="1"/>
-      <c r="H65" s="1"/>
-      <c r="I65" s="3"/>
-    </row>
-    <row r="66" spans="2:9" x14ac:dyDescent="0.45">
-      <c r="B66" s="2"/>
-      <c r="C66" s="1"/>
-      <c r="D66" s="1"/>
-      <c r="E66" s="1"/>
-      <c r="F66" s="1"/>
-      <c r="G66" s="1"/>
-      <c r="H66" s="1"/>
-      <c r="I66" s="3"/>
+      <c r="C60" s="57"/>
+      <c r="D60" s="57"/>
+      <c r="E60" s="57"/>
+      <c r="F60" s="36"/>
+      <c r="G60" s="36"/>
+      <c r="H60" s="34"/>
+      <c r="I60" s="38"/>
+    </row>
+    <row r="61" spans="2:9" ht="40.5" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="B61" s="71" t="s">
+        <v>67</v>
+      </c>
+      <c r="C61" s="72"/>
+      <c r="D61" s="72"/>
+      <c r="E61" s="73"/>
+      <c r="F61" s="35"/>
+      <c r="G61" s="35"/>
+      <c r="H61" s="33"/>
+      <c r="I61" s="37"/>
+    </row>
+    <row r="62" spans="2:9" ht="14.65" thickBot="1" x14ac:dyDescent="0.5">
+      <c r="B62" s="60" t="s">
+        <v>46</v>
+      </c>
+      <c r="C62" s="61"/>
+      <c r="D62" s="61"/>
+      <c r="E62" s="61"/>
+      <c r="F62" s="61"/>
+      <c r="G62" s="61"/>
+      <c r="H62" s="61"/>
+      <c r="I62" s="63"/>
+    </row>
+    <row r="63" spans="2:9" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.5">
+      <c r="B63" s="64" t="s">
+        <v>33</v>
+      </c>
+      <c r="C63" s="65"/>
+      <c r="D63" s="65"/>
+      <c r="E63" s="65"/>
+      <c r="F63" s="22"/>
+      <c r="G63" s="22"/>
+      <c r="H63" s="22"/>
+      <c r="I63" s="27"/>
+    </row>
+    <row r="64" spans="2:9" ht="14.65" thickBot="1" x14ac:dyDescent="0.5">
+      <c r="B64" s="60" t="s">
+        <v>47</v>
+      </c>
+      <c r="C64" s="61"/>
+      <c r="D64" s="61"/>
+      <c r="E64" s="61"/>
+      <c r="F64" s="61"/>
+      <c r="G64" s="61"/>
+      <c r="H64" s="61"/>
+      <c r="I64" s="63"/>
+    </row>
+    <row r="65" spans="2:9" s="13" customFormat="1" ht="31.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.5">
+      <c r="B65" s="39" t="s">
+        <v>39</v>
+      </c>
+      <c r="C65" s="40"/>
+      <c r="D65" s="40"/>
+      <c r="E65" s="40"/>
+      <c r="F65" s="25"/>
+      <c r="G65" s="25"/>
+      <c r="H65" s="25"/>
+      <c r="I65" s="26"/>
+    </row>
+    <row r="66" spans="2:9" s="13" customFormat="1" ht="17.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.5">
+      <c r="B66" s="39" t="s">
+        <v>32</v>
+      </c>
+      <c r="C66" s="40"/>
+      <c r="D66" s="40"/>
+      <c r="E66" s="40"/>
+      <c r="F66" s="25"/>
+      <c r="G66" s="25"/>
+      <c r="H66" s="25"/>
+      <c r="I66" s="26"/>
     </row>
     <row r="67" spans="2:9" x14ac:dyDescent="0.45">
-      <c r="B67" s="2"/>
-      <c r="C67" s="1"/>
-      <c r="D67" s="1"/>
-      <c r="E67" s="1"/>
-      <c r="F67" s="1"/>
-      <c r="G67" s="1"/>
-      <c r="H67" s="1"/>
-      <c r="I67" s="3"/>
+      <c r="B67" s="60" t="s">
+        <v>48</v>
+      </c>
+      <c r="C67" s="61"/>
+      <c r="D67" s="61"/>
+      <c r="E67" s="61"/>
+      <c r="F67" s="61"/>
+      <c r="G67" s="61"/>
+      <c r="H67" s="61"/>
+      <c r="I67" s="62"/>
     </row>
     <row r="68" spans="2:9" x14ac:dyDescent="0.45">
       <c r="B68" s="2"/>
@@ -2083,27 +2110,48 @@
       <c r="H79" s="1"/>
       <c r="I79" s="3"/>
     </row>
-    <row r="80" spans="2:9" ht="14.65" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="B80" s="4"/>
-      <c r="C80" s="5"/>
-      <c r="D80" s="5"/>
-      <c r="E80" s="5"/>
-      <c r="F80" s="5"/>
-      <c r="G80" s="5"/>
-      <c r="H80" s="5"/>
-      <c r="I80" s="6"/>
+    <row r="80" spans="2:9" x14ac:dyDescent="0.45">
+      <c r="B80" s="2"/>
+      <c r="C80" s="1"/>
+      <c r="D80" s="1"/>
+      <c r="E80" s="1"/>
+      <c r="F80" s="1"/>
+      <c r="G80" s="1"/>
+      <c r="H80" s="1"/>
+      <c r="I80" s="3"/>
+    </row>
+    <row r="81" spans="2:9" x14ac:dyDescent="0.45">
+      <c r="B81" s="2"/>
+      <c r="C81" s="1"/>
+      <c r="D81" s="1"/>
+      <c r="E81" s="1"/>
+      <c r="F81" s="1"/>
+      <c r="G81" s="1"/>
+      <c r="H81" s="1"/>
+      <c r="I81" s="3"/>
+    </row>
+    <row r="82" spans="2:9" x14ac:dyDescent="0.45">
+      <c r="B82" s="2"/>
+      <c r="C82" s="1"/>
+      <c r="D82" s="1"/>
+      <c r="E82" s="1"/>
+      <c r="F82" s="1"/>
+      <c r="G82" s="1"/>
+      <c r="H82" s="1"/>
+      <c r="I82" s="3"/>
+    </row>
+    <row r="83" spans="2:9" ht="14.65" thickBot="1" x14ac:dyDescent="0.5">
+      <c r="B83" s="4"/>
+      <c r="C83" s="5"/>
+      <c r="D83" s="5"/>
+      <c r="E83" s="5"/>
+      <c r="F83" s="5"/>
+      <c r="G83" s="5"/>
+      <c r="H83" s="5"/>
+      <c r="I83" s="6"/>
     </row>
   </sheetData>
-  <mergeCells count="56">
-    <mergeCell ref="B56:E56"/>
-    <mergeCell ref="B57:E57"/>
-    <mergeCell ref="B58:E58"/>
-    <mergeCell ref="B30:E30"/>
-    <mergeCell ref="B39:E39"/>
-    <mergeCell ref="B29:E29"/>
-    <mergeCell ref="B28:E28"/>
-    <mergeCell ref="B33:E33"/>
-    <mergeCell ref="B62:E62"/>
+  <mergeCells count="59">
     <mergeCell ref="B2:H2"/>
     <mergeCell ref="B4:E4"/>
     <mergeCell ref="B6:E6"/>
@@ -2116,53 +2164,65 @@
     <mergeCell ref="B8:E8"/>
     <mergeCell ref="B17:E17"/>
     <mergeCell ref="B20:E20"/>
-    <mergeCell ref="B21:E21"/>
-    <mergeCell ref="B22:E22"/>
+    <mergeCell ref="B9:E9"/>
+    <mergeCell ref="B10:E10"/>
+    <mergeCell ref="B11:E11"/>
+    <mergeCell ref="B12:E12"/>
+    <mergeCell ref="B67:I67"/>
+    <mergeCell ref="B64:I64"/>
+    <mergeCell ref="B63:E63"/>
+    <mergeCell ref="B62:I62"/>
+    <mergeCell ref="B38:E38"/>
+    <mergeCell ref="B40:I40"/>
+    <mergeCell ref="B48:E48"/>
+    <mergeCell ref="B47:E47"/>
+    <mergeCell ref="B45:E45"/>
+    <mergeCell ref="B56:E56"/>
+    <mergeCell ref="B57:E57"/>
+    <mergeCell ref="B51:E51"/>
+    <mergeCell ref="B65:E65"/>
+    <mergeCell ref="B59:E59"/>
+    <mergeCell ref="B60:E60"/>
+    <mergeCell ref="B61:E61"/>
     <mergeCell ref="B14:E14"/>
     <mergeCell ref="B31:E31"/>
-    <mergeCell ref="B64:I64"/>
-    <mergeCell ref="B61:I61"/>
-    <mergeCell ref="B60:E60"/>
-    <mergeCell ref="B59:I59"/>
-    <mergeCell ref="B38:E38"/>
-    <mergeCell ref="B40:I40"/>
+    <mergeCell ref="B22:E22"/>
     <mergeCell ref="B46:E46"/>
-    <mergeCell ref="B45:E45"/>
+    <mergeCell ref="B50:E50"/>
+    <mergeCell ref="B15:E15"/>
     <mergeCell ref="B44:E44"/>
-    <mergeCell ref="B53:E53"/>
-    <mergeCell ref="B54:E54"/>
-    <mergeCell ref="B48:E48"/>
-    <mergeCell ref="B52:E52"/>
-    <mergeCell ref="B50:E50"/>
-    <mergeCell ref="B47:E47"/>
-    <mergeCell ref="B42:E42"/>
-    <mergeCell ref="B63:E63"/>
-    <mergeCell ref="B41:E41"/>
-    <mergeCell ref="B9:E9"/>
-    <mergeCell ref="B51:E51"/>
-    <mergeCell ref="B15:E15"/>
-    <mergeCell ref="B43:E43"/>
     <mergeCell ref="B35:E35"/>
     <mergeCell ref="B36:E36"/>
     <mergeCell ref="B37:E37"/>
     <mergeCell ref="B34:E34"/>
     <mergeCell ref="B32:E32"/>
     <mergeCell ref="B19:E19"/>
-    <mergeCell ref="B10:E10"/>
-    <mergeCell ref="B11:E11"/>
-    <mergeCell ref="B12:E12"/>
+    <mergeCell ref="B21:E21"/>
+    <mergeCell ref="B66:E66"/>
+    <mergeCell ref="B41:E41"/>
+    <mergeCell ref="B29:E29"/>
+    <mergeCell ref="B28:E28"/>
+    <mergeCell ref="B33:E33"/>
+    <mergeCell ref="B30:E30"/>
+    <mergeCell ref="B39:E39"/>
+    <mergeCell ref="B55:E55"/>
+    <mergeCell ref="B53:E53"/>
+    <mergeCell ref="B49:E49"/>
+    <mergeCell ref="B43:E43"/>
+    <mergeCell ref="B42:E42"/>
+    <mergeCell ref="B54:E54"/>
   </mergeCells>
   <dataValidations count="4">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="F60" xr:uid="{F4FA62E0-2135-4317-9976-3F03E0B51F38}">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="F63" xr:uid="{F4FA62E0-2135-4317-9976-3F03E0B51F38}">
       <formula1>"Met, Working on, Partially Met, Not Met"</formula1>
     </dataValidation>
     <dataValidation type="list" showInputMessage="1" showErrorMessage="1" sqref="F8:F12" xr:uid="{A9C8500F-A069-4A02-8962-5FD63E4856F8}">
       <formula1>"Met, Partially Met, Working on, Not Met"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="F14:F22 F41:F48 F24:F39 F50:F54 F56:F58" xr:uid="{80EE6132-E9EE-4813-8EA4-0EFD0B6BD983}">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="F14:F22 F41:F51 F24:F39 F53:F57 F59:F61" xr:uid="{80EE6132-E9EE-4813-8EA4-0EFD0B6BD983}">
       <formula1>"Met, working on, partially met, not met"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="F62:F63" xr:uid="{87018E74-74F6-4293-8299-51B4E5C09855}">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="F65:F66" xr:uid="{87018E74-74F6-4293-8299-51B4E5C09855}">
       <formula1>"met, working on, partially met, not met"</formula1>
     </dataValidation>
   </dataValidations>
